--- a/exposan/werf/data/G1_init.xlsx
+++ b/exposan/werf/data/G1_init.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joy_c\Dropbox\PhD\Research\QSD\benchmarking_WRRFs\werf\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joy_c\Dropbox\PhD\Research\QSD\codes_developing\EXPOsan\exposan\werf\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B77F12D6-5D7F-4F93-A4C4-7D2B04B90C31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{582B39D3-720F-44EB-8F18-069858F5F9C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="26010" windowHeight="20985" activeTab="3" xr2:uid="{218DD762-44D5-4240-B5CB-C558EBE30BA7}"/>
+    <workbookView xWindow="3525" yWindow="1380" windowWidth="22440" windowHeight="18135" xr2:uid="{218DD762-44D5-4240-B5CB-C558EBE30BA7}"/>
   </bookViews>
   <sheets>
     <sheet name="asm" sheetId="1" r:id="rId1"/>
@@ -615,8 +615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67887DCA-7CBD-4529-953E-A8DE039190F5}">
   <dimension ref="A1:AE18"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="W1" sqref="W1:AE3"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -730,7 +730,7 @@
         <v>17.899999999999999</v>
       </c>
       <c r="F2" s="2">
-        <v>25</v>
+        <v>25.9</v>
       </c>
       <c r="G2" s="2">
         <v>18</v>
@@ -2388,7 +2388,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA96946B-17C1-41F5-A32B-CE0A064A22AA}">
   <dimension ref="A1:AE13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
